--- a/similarities/split_global/harmonic_similarity_timestamps_279.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_279.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_87</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:16.760000')]</t>
+          <t>('0:00:25', '0:00:35.520000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:23.040000', '0:00:32.800000')]</t>
+          <t>('0:01:35.260000', '0:01:53.640000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=25.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=23.04']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=95.26</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'G:min', 'D'], ['D', 'A:7', 'D']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F'], ['F', 'C:7', 'F']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:02.879563', '0:01:11.679925'), ('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:00:32.520000', '0:00:47.400000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:31.310000', '0:00:34.950000'), ('0:00:00.590000', '0:00:16.750000')]</t>
+          <t>('0:01:43', '0:02:02.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=62.879563', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=32.52</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=31.31', 'https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=0.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=103.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:05.915850', '0:00:14.867142')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A:min', 'C', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['B:min', 'D:maj/A', 'E:min/G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+          <t>('0:00:00.769000', '0:00:10.833000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
+          <t>('0:00:31.440000', '0:00:36.400000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=16.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=0.769</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=31.44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>jaah_44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>jaah_22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>['Bb:min7', 'Eb:min7', 'Ab:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['G:min7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:02.252358', '0:00:05.805011')]</t>
+          <t>('0:00:11.340000', '0:00:15.200000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:03.560000', '0:01:10.960000')]</t>
+          <t>('0:00:04.800000', '0:00:06.270000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=2.252358']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-44#t=11.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=63.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=4.8</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:04.300000', '0:02:09.240000')]</t>
+          <t>('0:00:04.160000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['C:maj', 'F:maj/A', 'C:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['D', 'G', 'D:7']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000'), ('0:00:15.060000', '0:00:17.940000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:17.839297', '0:00:30.215532'), ('0:00:19.139614', '0:00:32.700068')]</t>
+          <t>('0:00:06.726778', '0:00:13.147096')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=15.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=19.139614']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:11.260000')]</t>
+          <t>('0:00:09.162102', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:15.530000', '0:00:16.900000')]</t>
+          <t>('0:00:02.360000', '0:00:11.660000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:11.160000', '0:00:17.580000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:09.200000', '0:00:27.980000')]</t>
+          <t>('0:00:13.420000', '0:00:23.140000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:14.400000', '0:00:16.430000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:00:50.360000', '0:00:57.040000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'C:min', 'F:min/5', 'C:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:27.320000', '0:01:41.320000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:19.238000', '0:00:26.622000')]</t>
+          <t>('0:00:22.770000', '0:00:29.490000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=87.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=19.238']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:03:56.400000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:05.956303')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min'], ['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:13.120000'), ('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:23.200000', '0:01:31.140000'), ('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:01:04.080000', '0:01:10.120000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=64.08</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:00:28.450816', '0:00:43.926916')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
